--- a/DataTables/FACTURACION/EmitirFacturaFoa.xlsx
+++ b/DataTables/FACTURACION/EmitirFacturaFoa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AlborAutomation\albor\DataTables\Facturacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CCA407-CBDF-48ED-82FA-DB21B07FCAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5215AA-2986-42BC-9D8D-469BC71B9F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="138">
   <si>
     <t>usuario</t>
   </si>
@@ -86,301 +86,349 @@
     <t>controlTablas</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Factura A Webservice</t>
+  </si>
+  <si>
+    <t>21/05/2024</t>
+  </si>
+  <si>
+    <t>CABALGANDO SAFI</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Otras ventas</t>
+  </si>
+  <si>
+    <t>05 / 2024</t>
+  </si>
+  <si>
+    <t>0004-00000307</t>
+  </si>
+  <si>
+    <t>FINCAS Y BODEGAS MONTECHEZ S.A.</t>
+  </si>
+  <si>
+    <t>669476</t>
+  </si>
+  <si>
+    <t>4-VEN-131</t>
+  </si>
+  <si>
+    <t>0004-00000308</t>
+  </si>
+  <si>
+    <t>FOI TERRUÑOS DE LOS ANDES</t>
+  </si>
+  <si>
+    <t>2366438</t>
+  </si>
+  <si>
+    <t>4-VEN-132</t>
+  </si>
+  <si>
+    <t>0004-00000309</t>
+  </si>
+  <si>
+    <t>GRANAR S.A.C y F.</t>
+  </si>
+  <si>
+    <t>1099237</t>
+  </si>
+  <si>
+    <t>4-VEN-133</t>
+  </si>
+  <si>
+    <t>0004-00000310</t>
+  </si>
+  <si>
+    <t>GRANAR S.A.C y F. (AB)</t>
+  </si>
+  <si>
+    <t>1211356</t>
+  </si>
+  <si>
+    <t>4-VEN-134</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
+    <t>0004-00000311</t>
+  </si>
+  <si>
+    <t>LLORENTE HNOS SA</t>
+  </si>
+  <si>
+    <t>2327985</t>
+  </si>
+  <si>
+    <t>4-VEN-135</t>
+  </si>
+  <si>
+    <t>t_cliente</t>
+  </si>
+  <si>
+    <t>i_centroCosto</t>
+  </si>
+  <si>
+    <t>i_alicuota</t>
+  </si>
+  <si>
+    <t>i_netoGravado</t>
+  </si>
+  <si>
+    <t>i_descripcion</t>
+  </si>
+  <si>
+    <t>i_tipoItem</t>
+  </si>
+  <si>
+    <t>i_unidades</t>
+  </si>
+  <si>
+    <t>i_cuentaContable</t>
+  </si>
+  <si>
+    <t>formatoNumero</t>
+  </si>
+  <si>
+    <t>IVA21</t>
+  </si>
+  <si>
+    <t>IVA27</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>LA INDIA</t>
+  </si>
+  <si>
+    <t>IVA (21%)</t>
+  </si>
+  <si>
+    <t>443830,20</t>
+  </si>
+  <si>
+    <t>RENDICIÓN GASTOS FIDEICOMISO Periodo:</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>418001002</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>381512,16</t>
+  </si>
+  <si>
+    <t>355064,16</t>
+  </si>
+  <si>
+    <t>305209,73</t>
+  </si>
+  <si>
+    <t>214239,30</t>
+  </si>
+  <si>
+    <t>184158,04</t>
+  </si>
+  <si>
+    <t>104793,24</t>
+  </si>
+  <si>
+    <t>90079,26</t>
+  </si>
+  <si>
+    <t>128217,61</t>
+  </si>
+  <si>
+    <t>RENDICIÓN GASTOS FIDEICOMISO Periodo: (AB)</t>
+  </si>
+  <si>
+    <t>110214,62</t>
+  </si>
+  <si>
+    <t>118542,11</t>
+  </si>
+  <si>
+    <t>101897,66</t>
+  </si>
+  <si>
+    <t>AGUA POZO 1</t>
+  </si>
+  <si>
+    <t>IVA (27%)</t>
+  </si>
+  <si>
+    <t>165141,23</t>
+  </si>
+  <si>
+    <t>RECUPERO ENERGIA ELECTRICA Periodo:</t>
+  </si>
+  <si>
+    <t>AGUA POZO 3</t>
+  </si>
+  <si>
+    <t>433950,82</t>
+  </si>
+  <si>
+    <t>CONSUMO DE AGUA</t>
+  </si>
+  <si>
+    <t>1233967,16</t>
+  </si>
+  <si>
+    <t>72780,91</t>
+  </si>
+  <si>
+    <t>191250,46</t>
+  </si>
+  <si>
+    <t>601509,73</t>
+  </si>
+  <si>
+    <t>84168,76</t>
+  </si>
+  <si>
+    <t>RECUPERO ENERGIA ELECTRICA Periodo: (AB)</t>
+  </si>
+  <si>
+    <t>221174,93</t>
+  </si>
+  <si>
+    <t>648480,37</t>
+  </si>
+  <si>
+    <t>41621,53</t>
+  </si>
+  <si>
+    <t>109371,21</t>
+  </si>
+  <si>
+    <t>376153,73</t>
+  </si>
+  <si>
+    <t>161211,38</t>
+  </si>
+  <si>
+    <t>423624,12</t>
+  </si>
+  <si>
+    <t>1278501,90</t>
+  </si>
+  <si>
+    <t>t_centroCosto</t>
+  </si>
+  <si>
+    <t>i_finca</t>
+  </si>
+  <si>
+    <t>t_alicuota</t>
+  </si>
+  <si>
+    <t>i_iva</t>
+  </si>
+  <si>
+    <t>IVA (10.5%)</t>
+  </si>
+  <si>
+    <t>altamira</t>
+  </si>
+  <si>
+    <t>2-MODULO ALTAMIRA</t>
+  </si>
+  <si>
+    <t>ugarteche</t>
+  </si>
+  <si>
+    <t>1-MODULO UGARTECHE</t>
+  </si>
+  <si>
+    <t>FOA AGUAS DE ALTAMIRA</t>
+  </si>
+  <si>
+    <t>FOI TerruÃ±os de los Andes</t>
+  </si>
+  <si>
+    <t>Granar SACyF</t>
+  </si>
+  <si>
+    <t>Llorente Hnos SA</t>
+  </si>
+  <si>
+    <t>LOS NATIVOS S.A.</t>
+  </si>
+  <si>
+    <t>Los Nativos SA</t>
+  </si>
+  <si>
+    <t>Montechez</t>
+  </si>
+  <si>
+    <t>FINCA LAS MAGDALENAS S. A. S.</t>
+  </si>
+  <si>
+    <t>Sona Aldo Guillermo</t>
+  </si>
+  <si>
+    <t>TELLERIA JUAN GABRIEL</t>
+  </si>
+  <si>
+    <t>Telleria Juan Gabriel</t>
+  </si>
+  <si>
+    <t>AGRISUS SA</t>
+  </si>
+  <si>
+    <t>Agrisus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A &amp; T Y ASOCIADOS SA </t>
+  </si>
+  <si>
+    <t>AyT</t>
+  </si>
+  <si>
+    <t>Cabalgando</t>
+  </si>
+  <si>
+    <t>Granar SACyF (AB)</t>
+  </si>
+  <si>
+    <t>TipoFactura</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>CentroCostos</t>
+  </si>
+  <si>
+    <t>TipoItem</t>
+  </si>
+  <si>
     <t>Factura A</t>
   </si>
   <si>
-    <t>30/04/2024</t>
-  </si>
-  <si>
-    <t>0001-00000682</t>
-  </si>
-  <si>
-    <t>CABALGANDO SAFI</t>
-  </si>
-  <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
-    <t>Otras ventas</t>
-  </si>
-  <si>
-    <t>04 / 2024</t>
-  </si>
-  <si>
-    <t>998664</t>
-  </si>
-  <si>
-    <t>4-VEN-125</t>
-  </si>
-  <si>
-    <t>0001-00000680</t>
-  </si>
-  <si>
-    <t>FINCAS Y BODEGAS MONTECHEZ S.A.</t>
-  </si>
-  <si>
-    <t>798931</t>
-  </si>
-  <si>
-    <t>4-VEN-126</t>
-  </si>
-  <si>
-    <t>0001-00000681</t>
-  </si>
-  <si>
-    <t>FOI TERRUÑOS DE LOS ANDES</t>
-  </si>
-  <si>
-    <t>482060</t>
-  </si>
-  <si>
-    <t>4-VEN-127</t>
-  </si>
-  <si>
-    <t>0001-00000678</t>
-  </si>
-  <si>
-    <t>GRANAR S.A.C y F.</t>
-  </si>
-  <si>
-    <t>235795</t>
-  </si>
-  <si>
-    <t>4-VEN-128</t>
-  </si>
-  <si>
-    <t>0001-00000679</t>
-  </si>
-  <si>
-    <t>GRANAR S.A.C y F. (AB)</t>
-  </si>
-  <si>
-    <t>288503</t>
-  </si>
-  <si>
-    <t>4-VEN-129</t>
-  </si>
-  <si>
-    <t>0001-00000677</t>
-  </si>
-  <si>
-    <t>LLORENTE HNOS SA</t>
-  </si>
-  <si>
-    <t>266732</t>
-  </si>
-  <si>
-    <t>4-VEN-130</t>
-  </si>
-  <si>
-    <t>t_cliente</t>
-  </si>
-  <si>
-    <t>i_centroCosto</t>
-  </si>
-  <si>
-    <t>i_alicuota</t>
-  </si>
-  <si>
-    <t>i_netoGravado</t>
-  </si>
-  <si>
-    <t>i_descripcion</t>
-  </si>
-  <si>
-    <t>i_tipoItem</t>
-  </si>
-  <si>
-    <t>i_unidades</t>
-  </si>
-  <si>
-    <t>i_cuentaContable</t>
-  </si>
-  <si>
-    <t>formatoNumero</t>
-  </si>
-  <si>
-    <t>IVA21</t>
-  </si>
-  <si>
-    <t>IVA27</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>LA INDIA</t>
-  </si>
-  <si>
-    <t>IVA (21%)</t>
-  </si>
-  <si>
-    <t>443830,20</t>
-  </si>
-  <si>
-    <t>RENDICIÓN GASTOS FIDEICOMISO Periodo:</t>
-  </si>
-  <si>
-    <t>Concepto</t>
-  </si>
-  <si>
-    <t>418001002</t>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>381512,16</t>
-  </si>
-  <si>
-    <t>355064,16</t>
-  </si>
-  <si>
-    <t>305209,73</t>
-  </si>
-  <si>
-    <t>214239,30</t>
-  </si>
-  <si>
-    <t>184158,04</t>
-  </si>
-  <si>
-    <t>104793,24</t>
-  </si>
-  <si>
-    <t>90079,26</t>
-  </si>
-  <si>
-    <t>128217,61</t>
-  </si>
-  <si>
-    <t>RENDICIÓN GASTOS FIDEICOMISO Periodo: (AB)</t>
-  </si>
-  <si>
-    <t>110214,62</t>
-  </si>
-  <si>
-    <t>118542,11</t>
-  </si>
-  <si>
-    <t>101897,66</t>
-  </si>
-  <si>
-    <t>t_centroCosto</t>
-  </si>
-  <si>
-    <t>i_finca</t>
-  </si>
-  <si>
-    <t>t_alicuota</t>
-  </si>
-  <si>
-    <t>i_iva</t>
-  </si>
-  <si>
-    <t>IVA (10.5%)</t>
-  </si>
-  <si>
-    <t>altamira</t>
-  </si>
-  <si>
-    <t>2-MODULO ALTAMIRA</t>
-  </si>
-  <si>
-    <t>ugarteche</t>
-  </si>
-  <si>
-    <t>1-MODULO UGARTECHE</t>
-  </si>
-  <si>
-    <t>FOA AGUAS DE ALTAMIRA</t>
-  </si>
-  <si>
-    <t>FOI TerruÃ±os de los Andes</t>
-  </si>
-  <si>
-    <t>Granar SACyF</t>
-  </si>
-  <si>
-    <t>Llorente Hnos SA</t>
-  </si>
-  <si>
-    <t>LOS NATIVOS S.A.</t>
-  </si>
-  <si>
-    <t>Los Nativos SA</t>
-  </si>
-  <si>
-    <t>Montechez</t>
-  </si>
-  <si>
-    <t>FINCA LAS MAGDALENAS S. A. S.</t>
-  </si>
-  <si>
-    <t>Sona Aldo Guillermo</t>
-  </si>
-  <si>
-    <t>TELLERIA JUAN GABRIEL</t>
-  </si>
-  <si>
-    <t>Telleria Juan Gabriel</t>
-  </si>
-  <si>
-    <t>AGRISUS SA</t>
-  </si>
-  <si>
-    <t>Agrisus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A &amp; T Y ASOCIADOS SA </t>
-  </si>
-  <si>
-    <t>AyT</t>
-  </si>
-  <si>
-    <t>Cabalgando</t>
-  </si>
-  <si>
-    <t>Granar SACyF (AB)</t>
-  </si>
-  <si>
-    <t>TipoFactura</t>
-  </si>
-  <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>CentroCostos</t>
-  </si>
-  <si>
-    <t>TipoItem</t>
-  </si>
-  <si>
     <t>ADM-ADMINISTRACION</t>
   </si>
   <si>
-    <t>Factura A Webservice</t>
-  </si>
-  <si>
-    <t>CONSUMO AGUA</t>
-  </si>
-  <si>
     <t>Descuento</t>
   </si>
   <si>
     <t>Factura Crédito Electrónica A</t>
   </si>
   <si>
-    <t>AGUA POZO 1</t>
-  </si>
-  <si>
     <t>Factura Crédito Electrónica A Webservice</t>
-  </si>
-  <si>
-    <t>AGUA POZO 3</t>
   </si>
   <si>
     <t>Nota de Crédito A</t>
@@ -411,7 +459,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +526,12 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -556,7 +610,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
@@ -580,8 +634,23 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -601,32 +670,55 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="23">
-    <cellStyle name="60% - Énfasis1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="60% - Énfasis2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="60% - Énfasis3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="60% - Énfasis4 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="60% - Énfasis5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="60% - Énfasis6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+  <cellStyles count="38">
+    <cellStyle name="60% - Énfasis1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="60% - Énfasis1 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="60% - Énfasis2 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="60% - Énfasis3 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="60% - Énfasis4 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="60% - Énfasis5 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Énfasis6 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Millares 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Moneda 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Moneda 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Moneda 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Moneda 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Moneda 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Moneda 5" xfId="19" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Moneda 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Moneda 7" xfId="20" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Neutral 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Moneda 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Moneda 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Moneda 3 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Moneda 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Moneda 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Moneda 4 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Moneda 5" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Moneda 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Moneda 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Moneda 7" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Moneda 8" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Neutral 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Neutral 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Normal 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Normal 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Normal 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Título 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Título 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Título 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1000,12 +1092,12 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1013,90 +1105,90 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1202,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,91 +1213,94 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1219,13 +1314,13 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -1286,30 +1381,21 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
+      <c r="I2"/>
+      <c r="J2"/>
       <c r="L2" s="14">
         <v>998664.25560000003</v>
       </c>
@@ -1325,28 +1411,28 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
       </c>
       <c r="L3" s="14">
         <v>798931.40689999994</v>
@@ -1354,7 +1440,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1363,28 +1449,28 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="L4" s="14">
         <v>482060.78139999998</v>
@@ -1401,28 +1487,28 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
       </c>
       <c r="L5" s="14">
         <v>235795.72500000001</v>
@@ -1439,28 +1525,28 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
       </c>
       <c r="L6" s="14">
         <v>288502.99829999998</v>
@@ -1477,28 +1563,28 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
       </c>
       <c r="L7" s="14">
         <v>266732.12170000002</v>
@@ -1506,9 +1592,17 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8" s="3"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
@@ -1516,28 +1610,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D7C4BC5-8FDD-4D09-8316-621723AF4B15}">
-          <x14:formula1>
-            <xm:f>Padrones!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,11 +1628,12 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1558,40 +1641,40 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1599,43 +1682,43 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="G2" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="12">
-        <f t="shared" ref="J2:J13" si="0">VALUE(E2)</f>
+        <f t="shared" ref="J2:J28" si="0">VALUE(E2)</f>
         <v>443830.2</v>
       </c>
       <c r="K2" s="12">
-        <f t="shared" ref="K2:K13" si="1">IF(D2="IVA (21%)",J2*0.21,0)</f>
+        <f t="shared" ref="K2:K28" si="1">IF(D2="IVA (21%)",J2*0.21,0)</f>
         <v>93204.342000000004</v>
       </c>
       <c r="L2" s="12">
-        <f t="shared" ref="L2:L13" si="2">IF(E2="IVA (27%)",K2*0.27,0)</f>
+        <f t="shared" ref="L2:L28" si="2">IF(D2="IVA (27%)",J2*0.27,0)</f>
         <v>0</v>
       </c>
       <c r="M2" s="18">
-        <f t="shared" ref="M2:M13" si="3">SUM(J2:L2)</f>
+        <f t="shared" ref="M2:M28" si="3">SUM(J2:L2)</f>
         <v>537034.54200000002</v>
       </c>
     </row>
@@ -1644,28 +1727,28 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" si="0"/>
@@ -1689,28 +1772,28 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
@@ -1734,28 +1817,28 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
@@ -1779,28 +1862,28 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
@@ -1824,28 +1907,28 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
@@ -1869,28 +1952,28 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
@@ -1914,28 +1997,28 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
@@ -1959,28 +2042,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
@@ -2004,28 +2087,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
@@ -2049,28 +2132,28 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
@@ -2094,28 +2177,28 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
@@ -2132,6 +2215,681 @@
       <c r="M13" s="18">
         <f t="shared" si="3"/>
         <v>123296.1686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="0"/>
+        <v>165141.23000000001</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="2"/>
+        <v>44588.132100000003</v>
+      </c>
+      <c r="M14" s="18">
+        <f t="shared" si="3"/>
+        <v>209729.36210000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="0"/>
+        <v>433950.82</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="2"/>
+        <v>117166.72140000001</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="3"/>
+        <v>551117.54139999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="0"/>
+        <v>1233967.1599999999</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="2"/>
+        <v>333171.13319999998</v>
+      </c>
+      <c r="M16" s="18">
+        <f t="shared" si="3"/>
+        <v>1567138.2932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="0"/>
+        <v>72780.91</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="2"/>
+        <v>19650.845700000002</v>
+      </c>
+      <c r="M17" s="18">
+        <f t="shared" si="3"/>
+        <v>92431.755700000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="0"/>
+        <v>191250.46</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="2"/>
+        <v>51637.624199999998</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" si="3"/>
+        <v>242888.08419999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="0"/>
+        <v>601509.73</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="2"/>
+        <v>162407.62710000001</v>
+      </c>
+      <c r="M19" s="18">
+        <f t="shared" si="3"/>
+        <v>763917.35710000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="0"/>
+        <v>84168.76</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="2"/>
+        <v>22725.565200000001</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" si="3"/>
+        <v>106894.32519999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="0"/>
+        <v>221174.93</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="2"/>
+        <v>59717.231100000005</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" si="3"/>
+        <v>280892.16110000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="0"/>
+        <v>648480.37</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="2"/>
+        <v>175089.69990000001</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="3"/>
+        <v>823570.0699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="0"/>
+        <v>41621.53</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="2"/>
+        <v>11237.813100000001</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="3"/>
+        <v>52859.343099999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="0"/>
+        <v>109371.21</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="2"/>
+        <v>29530.226700000003</v>
+      </c>
+      <c r="M24" s="18">
+        <f t="shared" si="3"/>
+        <v>138901.43670000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="0"/>
+        <v>376153.73</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="2"/>
+        <v>101561.5071</v>
+      </c>
+      <c r="M25" s="18">
+        <f t="shared" si="3"/>
+        <v>477715.23709999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="0"/>
+        <v>161211.38</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="2"/>
+        <v>43527.072600000007</v>
+      </c>
+      <c r="M26" s="18">
+        <f t="shared" si="3"/>
+        <v>204738.45260000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" si="0"/>
+        <v>423624.12</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="2"/>
+        <v>114378.51240000001</v>
+      </c>
+      <c r="M27" s="18">
+        <f t="shared" si="3"/>
+        <v>538002.6324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="0"/>
+        <v>1278501.8999999999</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="2"/>
+        <v>345195.51299999998</v>
+      </c>
+      <c r="M28" s="18">
+        <f t="shared" si="3"/>
+        <v>1623697.4129999999</v>
       </c>
     </row>
   </sheetData>
@@ -2165,34 +2923,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2299,34 +3057,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2408,31 +3166,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2528,31 +3286,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2616,10 +3374,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -2628,7 +3386,7 @@
         <v>0.105</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -2637,7 +3395,7 @@
         <v>0.21</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2662,26 +3420,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
